--- a/11/app.xlsx
+++ b/11/app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Desktop\rule\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36291DC9-0396-4FE5-8E68-36ADF5084C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C343C1-E45A-4194-884C-2AA731E4AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Outbound</t>
   </si>
@@ -107,25 +107,13 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Inbound</t>
-  </si>
-  <si>
     <t>직접입력(Direct Input)</t>
   </si>
   <si>
-    <t>192.168.0.0/24</t>
-  </si>
-  <si>
-    <t>0.0.0.0/0</t>
-  </si>
-  <si>
-    <t>80, 443</t>
-  </si>
-  <si>
     <t>192.168.13.0/24</t>
   </si>
   <si>
-    <t>192.168.11.0/24, 192.168.254.2</t>
+    <t>2866, 3306</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1259,16 +1247,16 @@
     <row r="3" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7">
-        <v>22</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1276,143 +1264,51 @@
     </row>
     <row r="4" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5">
-        <v>9000</v>
-      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3306</v>
-      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2866</v>
-      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B13" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Inbound, Outbound"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D13" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D7" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"직접입력(Direct Input), ALL"</formula1>
     </dataValidation>
   </dataValidations>
